--- a/我的创作/财务/证券投资/股票/内部投资人交易角度分析系统/基本面投资研究.xlsx
+++ b/我的创作/财务/证券投资/股票/内部投资人交易角度分析系统/基本面投资研究.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="26500" windowHeight="10260"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>表格 1</t>
   </si>
@@ -19,15 +22,40 @@
     <t>股票代码</t>
   </si>
   <si>
+    <r>
+      <t>基本信息</t>
+    </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
       </rPr>
-      <t>基本信息(通过了解企业的发展历史来收集企业的基本信息进而来了解企业是否真的一直运转良好还是因为运气比较好)</t>
+      <t xml:space="preserve">
+(</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过了解企业的发展历史来收集企业的基本信息进而来了解企业是否真的一直运转良好还是因为运气比较好</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>客户质量和客户满意度</t>
@@ -51,18 +79,12 @@
     <t>并购情况</t>
   </si>
   <si>
-    <t>主要业务(运作方式)</t>
+    <t>运作方式</t>
   </si>
   <si>
     <t>赚钱的方法</t>
   </si>
   <si>
-    <t>未来发展</t>
-  </si>
-  <si>
-    <t>在哪里赚钱</t>
-  </si>
-  <si>
     <t>核心客户</t>
   </si>
   <si>
@@ -91,6 +113,36 @@
   </si>
   <si>
     <t>整体衡量企业质量的标准</t>
+  </si>
+  <si>
+    <t>产品或服务如何生产的</t>
+  </si>
+  <si>
+    <t>产品或服务如何销售的</t>
+  </si>
+  <si>
+    <t>产品或服务如何交付的</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>支出</t>
+  </si>
+  <si>
+    <t>总收入</t>
+  </si>
+  <si>
+    <t>来源</t>
+  </si>
+  <si>
+    <t>比例</t>
+  </si>
+  <si>
+    <t>总支出</t>
+  </si>
+  <si>
+    <t>方向</t>
   </si>
   <si>
     <r>
@@ -98,16 +150,10 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
       </rPr>
       <t>300459（汤姆猫）</t>
     </r>
-  </si>
-  <si>
-    <t>1.广告发行：即依靠开发游戏免费给用户使用，然后在游戏中添加广告，在用户通过该广告点击、购买相关产品或服务后获利。
-2.游戏发行：通过下载游戏、游戏内购买道具皮肤等等获利;
-3.授权业务：即将自己的品牌授权给一些用户使用获利。
-3.新商业服务业务：衍生品专卖店、儿童早教产品发行。
-4.媒体影视业务：通过制作发行动漫电影，在用户购买后获利。</t>
   </si>
   <si>
     <t>1.来源于分发广告：78.96%；
@@ -117,10 +163,6 @@
 5.媒体影视业务：1.81%</t>
   </si>
   <si>
-    <t>1.主要在国外；
-2.国内；</t>
-  </si>
-  <si>
     <t>机器人</t>
   </si>
   <si>
@@ -143,44 +185,224 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
-      <i val="1"/>
+      <b/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="15"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,23 +412,209 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="14"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -239,15 +647,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -298,13 +708,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -313,13 +723,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -358,13 +768,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
         <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -386,116 +811,495 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" indent="4" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ff333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="00A5A5A5"/>
+      <rgbColor rgb="00BDC0BF"/>
+      <rgbColor rgb="003F3F3F"/>
+      <rgbColor rgb="00DBDBDB"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -694,8 +1498,6 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -715,8 +1517,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -728,7 +1529,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -745,8 +1546,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -771,8 +1571,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -797,8 +1596,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -823,8 +1621,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -849,8 +1646,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -875,8 +1671,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -901,8 +1696,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -927,8 +1721,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,8 +1746,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -967,9 +1759,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -983,8 +1781,6 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1004,8 +1800,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1030,8 +1825,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1056,8 +1850,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1082,8 +1875,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1108,8 +1900,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1134,8 +1925,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,8 +1950,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1186,8 +1975,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1212,8 +2000,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,8 +2025,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1252,9 +2038,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1265,8 +2057,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1286,8 +2076,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1299,7 +2088,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1316,8 +2105,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1342,8 +2130,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1368,8 +2155,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1394,8 +2180,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1420,8 +2205,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1446,8 +2230,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1472,8 +2255,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1498,8 +2280,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1524,8 +2305,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1538,9 +2318,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1549,636 +2335,827 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3672" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6094" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.8594" style="1" customWidth="1"/>
-    <col min="7" max="12" width="18.7969" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.0078" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.3438" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.3281" style="1" customWidth="1"/>
-    <col min="16" max="22" width="16.3516" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.3660714285714" style="1" customWidth="1"/>
+    <col min="3" max="5" width="24.75" style="1" customWidth="1"/>
+    <col min="6" max="10" width="23.6071428571429" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.8571428571429" style="1" customWidth="1"/>
+    <col min="12" max="17" width="18.7946428571429" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.0089285714286" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.3482142857143" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.3303571428571" style="1" customWidth="1"/>
+    <col min="21" max="16382" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="16383" max="16384" width="16.3303571428571" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="31" customHeight="1" spans="1:27">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="3"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="K1" s="3"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="3"/>
+      <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
       <c r="U1" s="3"/>
-      <c r="V1" s="5"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="30"/>
     </row>
-    <row r="2" ht="65.4" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" ht="65.4" customHeight="1" spans="1:27">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" t="s" s="6">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" t="s" s="6">
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" t="s" s="6">
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" t="s" s="6">
+      <c r="V2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="R2" t="s" s="6">
+      <c r="W2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="S2" t="s" s="6">
+      <c r="X2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T2" t="s" s="6">
+      <c r="Y2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
     </row>
-    <row r="3" ht="29.15" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" t="s" s="11">
+    <row r="3" ht="61" customHeight="1" spans="1:27">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="11">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="11">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="L3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="13">
+      <c r="M3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="13">
+      <c r="N3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="14">
+      <c r="O3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s" s="14">
+      <c r="P3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s" s="14">
+      <c r="Q3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s" s="14">
+      <c r="R3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s" s="14">
+      <c r="S3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="M3" t="s" s="13">
+      <c r="T3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N3" t="s" s="13">
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+    </row>
+    <row r="4" ht="36" customHeight="1" spans="1:27">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O3" t="s" s="13">
+      <c r="C4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-    </row>
-    <row r="4" ht="321.2" customHeight="1">
-      <c r="A4" t="s" s="16">
+      <c r="D4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s" s="17">
+      <c r="E4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s" s="18">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" t="s" s="20">
-        <v>27</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="16">
+    <row r="5" ht="39" customHeight="1" spans="1:27">
+      <c r="A5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
+      <c r="G5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
+    <row r="6" ht="321.2" customHeight="1" spans="1:27">
+      <c r="A6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
+    <row r="7" ht="20.05" customHeight="1" spans="1:27">
+      <c r="A7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="16">
-        <v>31</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
+    <row r="8" ht="20.05" customHeight="1" spans="1:27">
+      <c r="A8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="16">
-        <v>32</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
+    <row r="9" ht="20.05" customHeight="1" spans="1:27">
+      <c r="A9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="16">
-        <v>33</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
+    <row r="10" ht="20.05" customHeight="1" spans="1:27">
+      <c r="A10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
+    <row r="11" ht="20.05" customHeight="1" spans="1:27">
+      <c r="A11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
+    <row r="12" ht="20.05" customHeight="1" spans="1:27">
+      <c r="A12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
+    <row r="13" ht="20.05" customHeight="1" spans="1:27">
+      <c r="A13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
+    <row r="14" ht="20.05" customHeight="1" spans="1:27">
+      <c r="A14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
+    <row r="15" ht="20.05" customHeight="1" spans="1:27">
+      <c r="A15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
     </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
+    <row r="16" ht="20.05" customHeight="1" spans="1:27">
+      <c r="A16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
+    <row r="17" ht="20.05" customHeight="1" spans="1:27">
+      <c r="A17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
+    <row r="18" ht="20.05" customHeight="1" spans="1:27">
+      <c r="A18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
     </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
+    <row r="19" ht="20.05" customHeight="1" spans="1:27">
+      <c r="A19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
     </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
+    <row r="20" ht="20.05" customHeight="1" spans="1:27">
+      <c r="A20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
+    <row r="21" ht="20.05" customHeight="1" spans="1:27">
+      <c r="A21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
     </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
+    <row r="22" ht="20.05" customHeight="1" spans="1:27">
+      <c r="A22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1" spans="1:27">
+      <c r="A23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1" spans="1:27">
+      <c r="A24" s="19"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:O2"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" location="" tooltip="" display="300459"/>
+    <hyperlink ref="A6" r:id="rId1" display="300459（汤姆猫）"/>
   </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
+  <pageSetup paperSize="1" scale="72" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
